--- a/SOCE.Library/SOCE.Library.UI/Resources/WeeklySchedule.xlsx
+++ b/SOCE.Library/SOCE.Library.UI/Resources/WeeklySchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnoe\Documents\GitHub\SOCE.Library\SOCE.Library\SOCE.Library.UI\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C981BA-AFAC-41AE-83F8-5E31B1B75677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90EA014-0D63-4E3F-8BE6-ECBF7939CE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29025" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{882DB3C1-96CC-4292-A4E0-C044C10FB821}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{882DB3C1-96CC-4292-A4E0-C044C10FB821}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,21 +75,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -100,8 +86,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,28 +107,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -147,58 +131,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,10 +619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07D2498-42F4-4A94-8308-07C78B94B437}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -635,110 +644,110 @@
     <col min="15" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="15" customFormat="1" ht="13.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="13.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
         <f t="shared" ref="H2:O2" si="0">SUM(H4:H668)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M2" s="13">
+      <c r="M2" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N2" s="13">
+      <c r="N2" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:16" ht="13.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="11" t="str">
         <f>'[1]Summary.by.Project'!B2</f>
         <v>PROJECT #</v>
       </c>
-      <c r="C3" s="4" t="str">
+      <c r="C3" s="11" t="str">
         <f>'[1]Summary.by.Project'!C2</f>
         <v>Client</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="11" t="str">
         <f>'[1]Summary.by.Project'!D2</f>
         <v>Status</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="12" t="str">
         <f>'[1]Summary.by.Project'!E2</f>
         <v>Due Date</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="11" t="str">
         <f>'[1]Summary.by.Project'!F2</f>
         <v>Percent Complete</v>
       </c>
-      <c r="G3" s="4" t="str">
+      <c r="G3" s="11" t="str">
         <f>'[1]Summary.by.Project'!H2</f>
         <v>Project Manager</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12" t="str">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="16" t="str">
         <f>'[1]Summary.by.Project'!R2</f>
         <v>TOTALS</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="13.35" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -755,20 +764,21 @@
         <f>+IF([1]Project_List!H3="","",[1]Project_List!H3)</f>
         <v/>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="14">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15">
         <f t="shared" ref="P4" si="1">SUM(H4:O4)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>